--- a/medicine/Enfance/Armand_Got/Armand_Got.xlsx
+++ b/medicine/Enfance/Armand_Got/Armand_Got.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Armand Got (Bergerac, 23 octobre 1890 - Brantôme, 16 mai 1976), est un critique d'art et de littérature, auteur d'anthologies poétiques et de contes pour la jeunesse.
 Instituteur au Bouscat après son service militaire (1912-1919), il est détaché comme directeur de la Bibliothèque pédagogique de Gironde. Il collabore à différents journaux en tant que critique. Il est entre autres membre du jury du prix Jeunesse, membre fondateur de l'Académie Montesquieu, de l'Académie des Lettres et des Arts du Périgord, et directeur littéraire de la Renaissance provinciale (1922-1970).
@@ -514,7 +526,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La Poèmeraie (en collaboration avec Charles Vildrac), illustrations de Edmond André Rocher, Gedalge, 1927
 L'Arc en Fleur (En trois parties : suite de La Poèmeraie), Bourrelier, 1933, 1934, 1936
@@ -565,7 +579,9 @@
           <t>Autres œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Amour aux Mamans pour la Fête des Mères. Poèmeraie Enfantine, Bordeaux, Les Éditions d'Aquitaine, 1952
 Amour aux Parents, Compliments pour la Fête des Mères, des Pères, des Parents, Bordeaux, Les Éditions d'Aquitaine, non daté mais probablement après 1952</t>
